--- a/public/instructivo/Instructivo_Carga_Data_Postulantes_Postgrado.xlsx
+++ b/public/instructivo/Instructivo_Carga_Data_Postulantes_Postgrado.xlsx
@@ -314,12 +314,6 @@
     <t>1, 2, 3, ó 4</t>
   </si>
   <si>
-    <t>Indicador si el postulante sufre o no discapacidad. Valores:
-1: Si
-2: No
-Vacío: No</t>
-  </si>
-  <si>
     <t>Obligatorio solo si marcó SI para sufre discapacidad</t>
   </si>
   <si>
@@ -544,6 +538,12 @@
   <si>
     <t>Error en la Columna CORREO ELECTRÓNICO:
 El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna Z, Fila n</t>
+  </si>
+  <si>
+    <t>Indicador si el postulante sufre o no discapacidad. Valores:
+1: Si
+0: No
+Vacío: No</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1107,7 +1109,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -1120,7 +1122,7 @@
     <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1214,10 +1216,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>124</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>33</v>
@@ -1226,7 +1228,7 @@
         <v>78</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>66</v>
@@ -1235,7 +1237,7 @@
         <v>41</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="162.75" x14ac:dyDescent="0.35">
@@ -1243,28 +1245,28 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>42</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="91.5" x14ac:dyDescent="0.35">
@@ -1293,7 +1295,7 @@
         <v>43</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -1322,7 +1324,7 @@
         <v>45</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
@@ -1351,7 +1353,7 @@
         <v>48</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="106.5" x14ac:dyDescent="0.35">
@@ -1380,7 +1382,7 @@
         <v>50</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1397,10 +1399,10 @@
         <v>33</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" s="16">
         <v>65745985</v>
@@ -1409,7 +1411,7 @@
         <v>51</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1426,10 +1428,10 @@
         <v>33</v>
       </c>
       <c r="E17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>91</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>63</v>
@@ -1438,7 +1440,7 @@
         <v>59</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1455,10 +1457,10 @@
         <v>33</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>91</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>69</v>
@@ -1467,7 +1469,7 @@
         <v>61</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1484,10 +1486,10 @@
         <v>29</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>72</v>
@@ -1511,10 +1513,10 @@
         <v>33</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>91</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>74</v>
@@ -1523,7 +1525,7 @@
         <v>66</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1552,7 +1554,7 @@
         <v>67</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1581,7 +1583,7 @@
         <v>65</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
@@ -1610,7 +1612,7 @@
         <v>80</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -1621,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>49</v>
@@ -1639,7 +1641,7 @@
         <v>84</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.35">
@@ -1650,25 +1652,25 @@
         <v>2</v>
       </c>
       <c r="C25" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="11" t="s">
+      <c r="F25" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="G25" s="16" t="s">
         <v>91</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>92</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>73</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1679,16 +1681,16 @@
         <v>3</v>
       </c>
       <c r="C26" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="G26" s="16">
         <v>158</v>
@@ -1697,7 +1699,7 @@
         <v>75</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1708,25 +1710,25 @@
         <v>4</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E27" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>91</v>
-      </c>
       <c r="G27" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1737,25 +1739,25 @@
         <v>5</v>
       </c>
       <c r="C28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>102</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>76</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1766,25 +1768,25 @@
         <v>6</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E29" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>91</v>
-      </c>
       <c r="G29" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1795,25 +1797,25 @@
         <v>7</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E30" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>91</v>
-      </c>
       <c r="G30" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="69.75" x14ac:dyDescent="0.35">
@@ -1821,28 +1823,28 @@
         <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="D31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31" s="16" t="s">
+      <c r="H31" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1853,25 +1855,25 @@
         <v>8</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>114</v>
-      </c>
       <c r="H32" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -1882,25 +1884,25 @@
         <v>9</v>
       </c>
       <c r="C33" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="11" t="s">
+      <c r="F33" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="G33" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="G33" s="16" t="s">
-        <v>118</v>
-      </c>
       <c r="H33" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1911,22 +1913,22 @@
         <v>10</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G34" s="14">
         <v>945625285</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I34" s="11"/>
     </row>
@@ -1938,20 +1940,20 @@
         <v>11</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I35" s="11"/>
     </row>
